--- a/data/trans_orig/P57B2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B2_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>287560</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>254958</v>
+        <v>255556</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>314288</v>
+        <v>315527</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7051621769837069</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6252142007655154</v>
+        <v>0.6266807075455757</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7707050447856495</v>
+        <v>0.773744212191093</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>131</v>
@@ -762,19 +762,19 @@
         <v>228008</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>202180</v>
+        <v>202396</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>251368</v>
+        <v>253148</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6289671357147207</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5577195073926825</v>
+        <v>0.5583144714296453</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6934063146496067</v>
+        <v>0.6983163142877448</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>254</v>
@@ -783,19 +783,19 @@
         <v>515568</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>476399</v>
+        <v>479347</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>552580</v>
+        <v>554058</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.669304155104183</v>
+        <v>0.6693041551041827</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6184553688243415</v>
+        <v>0.6222822776214181</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7173518882095146</v>
+        <v>0.7192709306628728</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>101193</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>74354</v>
+        <v>75380</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>132576</v>
+        <v>131415</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2481470232595799</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1823334138669672</v>
+        <v>0.1848479441309264</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3251065833702587</v>
+        <v>0.3222584097304791</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>53</v>
@@ -833,19 +833,19 @@
         <v>92819</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>72633</v>
+        <v>70129</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>117613</v>
+        <v>118121</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2560443509760236</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2003603483028256</v>
+        <v>0.1934516472824508</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3244400640928067</v>
+        <v>0.3258394320256036</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>94</v>
@@ -854,19 +854,19 @@
         <v>194012</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>159017</v>
+        <v>158087</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>231034</v>
+        <v>228343</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2518635715457906</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2064344577379082</v>
+        <v>0.2052271061587616</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2999249358473954</v>
+        <v>0.2964324344032945</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>13051</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4414</v>
+        <v>4726</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27364</v>
+        <v>27461</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.03200292753715603</v>
+        <v>0.03200292753715602</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01082322160580517</v>
+        <v>0.01158974655252504</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06710283454797279</v>
+        <v>0.06734045734794444</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>23</v>
@@ -904,19 +904,19 @@
         <v>41685</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>26330</v>
+        <v>27705</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>62641</v>
+        <v>60700</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1149885133092556</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07263163070787435</v>
+        <v>0.07642436792823741</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.17279682778399</v>
+        <v>0.1674427503925882</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>29</v>
@@ -925,19 +925,19 @@
         <v>54735</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>36421</v>
+        <v>35556</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>78593</v>
+        <v>78355</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.07105663629224628</v>
+        <v>0.07105663629224626</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04728150562124762</v>
+        <v>0.04615770620643816</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1020284738445894</v>
+        <v>0.1017200255502919</v>
       </c>
     </row>
     <row r="7">
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20201</v>
+        <v>20564</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01468787221955732</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04953846149298647</v>
+        <v>0.05042776164779231</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20099</v>
+        <v>19592</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007775637057780263</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02609210416854472</v>
+        <v>0.02543461400536212</v>
       </c>
     </row>
     <row r="8">
@@ -1092,19 +1092,19 @@
         <v>264652</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>234195</v>
+        <v>236772</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>290999</v>
+        <v>294710</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5549532950183421</v>
+        <v>0.5549532950183422</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4910872980513148</v>
+        <v>0.4964915012090698</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6102024785440762</v>
+        <v>0.6179834601649133</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>240</v>
@@ -1113,19 +1113,19 @@
         <v>267791</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>245136</v>
+        <v>243761</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>292024</v>
+        <v>291918</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.5344238939453119</v>
+        <v>0.534423893945312</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4892125667955087</v>
+        <v>0.4864677391451728</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5827853538002309</v>
+        <v>0.5825738439066157</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>401</v>
@@ -1134,19 +1134,19 @@
         <v>532442</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>494460</v>
+        <v>495808</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>566402</v>
+        <v>569115</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5444346692582712</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5055968605813088</v>
+        <v>0.5069752374429015</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.579159208301569</v>
+        <v>0.5819332618415516</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>167363</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>141234</v>
+        <v>140192</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>195637</v>
+        <v>194947</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3509466321445689</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2961561827120335</v>
+        <v>0.2939711828496293</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4102358219374853</v>
+        <v>0.4087874104619965</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>177</v>
@@ -1184,19 +1184,19 @@
         <v>189434</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>167087</v>
+        <v>167069</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>213044</v>
+        <v>212386</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3780492061733743</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3334512233872798</v>
+        <v>0.3334153478050808</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4251665023936627</v>
+        <v>0.4238533778021069</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>287</v>
@@ -1205,19 +1205,19 @@
         <v>356797</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>321896</v>
+        <v>324181</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>390484</v>
+        <v>391585</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3648331470180174</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3291456477675082</v>
+        <v>0.3314821136864295</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3992785068204905</v>
+        <v>0.4004047088808697</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>37306</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>25529</v>
+        <v>25033</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>55240</v>
+        <v>54060</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07822771561700516</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05353306310374373</v>
+        <v>0.05249131592065304</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1158348141821859</v>
+        <v>0.113360058102881</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>39</v>
@@ -1255,19 +1255,19 @@
         <v>38626</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>27746</v>
+        <v>28394</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>52145</v>
+        <v>52562</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07708598415851851</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05537274183378483</v>
+        <v>0.05666509625958999</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1040654093608584</v>
+        <v>0.1048976124084535</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>64</v>
@@ -1276,19 +1276,19 @@
         <v>75932</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>59335</v>
+        <v>58846</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>97751</v>
+        <v>97556</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07764272797476468</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0606717768138541</v>
+        <v>0.06017098687855646</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09995230530577537</v>
+        <v>0.09975330013027089</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>7569</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3218</v>
+        <v>3269</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15956</v>
+        <v>16612</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01587235722008368</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.006747675710381282</v>
+        <v>0.006854224270895653</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03345816278111094</v>
+        <v>0.03483466166827204</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1326,19 +1326,19 @@
         <v>5232</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1132</v>
+        <v>1707</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12963</v>
+        <v>12821</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01044091572279517</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.00225996754504799</v>
+        <v>0.003405902152024055</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02587044945268526</v>
+        <v>0.02558620240527924</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -1347,19 +1347,19 @@
         <v>12801</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6575</v>
+        <v>6228</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>23779</v>
+        <v>22795</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01308945574894667</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.006723203759796126</v>
+        <v>0.006367991418966695</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02431454941092285</v>
+        <v>0.02330790871795606</v>
       </c>
     </row>
     <row r="13">
@@ -1451,19 +1451,19 @@
         <v>347428</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>317896</v>
+        <v>319580</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>370561</v>
+        <v>372451</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5596116605460244</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5120450045233552</v>
+        <v>0.5147559203701827</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5968737124832506</v>
+        <v>0.5999178687654667</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>425</v>
@@ -1472,19 +1472,19 @@
         <v>330869</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>309100</v>
+        <v>309461</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>351030</v>
+        <v>350420</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5324057038008967</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4973768004362598</v>
+        <v>0.4979584152484318</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5648465742867583</v>
+        <v>0.5638650673161738</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>714</v>
@@ -1493,19 +1493,19 @@
         <v>678296</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>645058</v>
+        <v>647415</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>711930</v>
+        <v>713637</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5460018636449733</v>
+        <v>0.5460018636449732</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5192465799049432</v>
+        <v>0.5211442897803917</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5730763310087603</v>
+        <v>0.574450224980546</v>
       </c>
     </row>
     <row r="15">
@@ -1522,19 +1522,19 @@
         <v>196905</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>174859</v>
+        <v>173963</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>224754</v>
+        <v>223475</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3171612959748648</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2816497123159247</v>
+        <v>0.2802077492150263</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3620179200922977</v>
+        <v>0.3599570054936165</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>317</v>
@@ -1543,19 +1543,19 @@
         <v>222157</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>201988</v>
+        <v>203020</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>242668</v>
+        <v>243134</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3574766120848161</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3250210753186414</v>
+        <v>0.3266823274072387</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3904809070499212</v>
+        <v>0.3912301678390199</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>502</v>
@@ -1564,19 +1564,19 @@
         <v>419063</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>386751</v>
+        <v>389591</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>450181</v>
+        <v>452036</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.3373290581086623</v>
+        <v>0.3373290581086622</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3113197704699786</v>
+        <v>0.3136054420740769</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3623785915963643</v>
+        <v>0.3638717145161882</v>
       </c>
     </row>
     <row r="16">
@@ -1593,19 +1593,19 @@
         <v>58122</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44298</v>
+        <v>44100</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>74208</v>
+        <v>72477</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.09361838316651784</v>
+        <v>0.09361838316651785</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07135173939762096</v>
+        <v>0.07103361358491482</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1195297487013806</v>
+        <v>0.1167399833320546</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>94</v>
@@ -1614,19 +1614,19 @@
         <v>61733</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>50196</v>
+        <v>50542</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>75694</v>
+        <v>74445</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09933608492841976</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08077093692843469</v>
+        <v>0.08132813974707603</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1218005523483952</v>
+        <v>0.1197905492694133</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>151</v>
@@ -1635,19 +1635,19 @@
         <v>119855</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>102335</v>
+        <v>101923</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>140725</v>
+        <v>139128</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09647866705395011</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08237574323325141</v>
+        <v>0.08204406323292449</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1132784963708114</v>
+        <v>0.1119923755615498</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>18382</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10559</v>
+        <v>10405</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>29410</v>
+        <v>29532</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02960866031259293</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01700720292553323</v>
+        <v>0.01675969902117475</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04737093234365743</v>
+        <v>0.04756814156176112</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -1685,19 +1685,19 @@
         <v>6700</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3103</v>
+        <v>3181</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12680</v>
+        <v>12369</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01078159918586747</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.004992869758133347</v>
+        <v>0.005118494295999896</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02040416867615376</v>
+        <v>0.01990251866763205</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -1706,19 +1706,19 @@
         <v>25082</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15776</v>
+        <v>16681</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>36443</v>
+        <v>37924</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02019041119241453</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01269936461748242</v>
+        <v>0.01342739135974867</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02933530771344464</v>
+        <v>0.03052735811059769</v>
       </c>
     </row>
     <row r="18">
@@ -1810,19 +1810,19 @@
         <v>323881</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>296155</v>
+        <v>298981</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>351506</v>
+        <v>353603</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.464337304643621</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4245876639235822</v>
+        <v>0.4286389440235742</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.503941894836624</v>
+        <v>0.5069489114497695</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>419</v>
@@ -1831,19 +1831,19 @@
         <v>288205</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>268117</v>
+        <v>264468</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>309458</v>
+        <v>309475</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.391992970254302</v>
+        <v>0.3919929702543021</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3646708235326881</v>
+        <v>0.3597081029462683</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4208996005977984</v>
+        <v>0.4209227637171245</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>711</v>
@@ -1852,19 +1852,19 @@
         <v>612086</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>577350</v>
+        <v>578248</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>647816</v>
+        <v>648188</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4272128881340574</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4029682467680805</v>
+        <v>0.4035951106346867</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4521509105575371</v>
+        <v>0.4524107571206418</v>
       </c>
     </row>
     <row r="20">
@@ -1881,19 +1881,19 @@
         <v>264259</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>239754</v>
+        <v>235822</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>290289</v>
+        <v>288530</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3788582864859842</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.343726719481852</v>
+        <v>0.3380897317500785</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4161765354859988</v>
+        <v>0.4136560122008512</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>543</v>
@@ -1902,19 +1902,19 @@
         <v>336822</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>316452</v>
+        <v>315382</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>359970</v>
+        <v>358241</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.4581177772791698</v>
+        <v>0.4581177772791699</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4304126109882487</v>
+        <v>0.4289565813723195</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4896025537298043</v>
+        <v>0.4872505356926099</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>802</v>
@@ -1923,19 +1923,19 @@
         <v>601081</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>564493</v>
+        <v>566427</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>635057</v>
+        <v>633619</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.4195313035699119</v>
+        <v>0.419531303569912</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3939945908788532</v>
+        <v>0.3953444922137383</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4432452303171675</v>
+        <v>0.4422419340134734</v>
       </c>
     </row>
     <row r="21">
@@ -1952,19 +1952,19 @@
         <v>98811</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>80246</v>
+        <v>81084</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>117421</v>
+        <v>117091</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1416622575166808</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1150454650067186</v>
+        <v>0.1162468094342587</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.168342354729005</v>
+        <v>0.1678696972350328</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>153</v>
@@ -1973,19 +1973,19 @@
         <v>95084</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>80173</v>
+        <v>81555</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>108793</v>
+        <v>111625</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.129325094143682</v>
+        <v>0.1293250941436821</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1090450316914071</v>
+        <v>0.1109248299995574</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1479710893140173</v>
+        <v>0.1518230618072758</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>254</v>
@@ -1994,19 +1994,19 @@
         <v>193895</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>173467</v>
+        <v>171873</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>218354</v>
+        <v>217778</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1353312850159046</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.121073267413574</v>
+        <v>0.1199608054332913</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1524030166504016</v>
+        <v>0.1520005380422651</v>
       </c>
     </row>
     <row r="22">
@@ -2023,19 +2023,19 @@
         <v>10562</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5350</v>
+        <v>5705</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19164</v>
+        <v>18539</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.01514215135371393</v>
+        <v>0.01514215135371394</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007670757425329989</v>
+        <v>0.008178488375323228</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02747524293928905</v>
+        <v>0.02657827004064301</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>23</v>
@@ -2044,19 +2044,19 @@
         <v>15119</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9688</v>
+        <v>9870</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23037</v>
+        <v>22663</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02056415832284602</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01317681690067972</v>
+        <v>0.01342415447457433</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03133250719019361</v>
+        <v>0.03082415029771154</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>34</v>
@@ -2065,19 +2065,19 @@
         <v>25681</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17668</v>
+        <v>17717</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>35281</v>
+        <v>35187</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01792452328012611</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01233184885578534</v>
+        <v>0.0123658270177703</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02462455370510143</v>
+        <v>0.0245592568937666</v>
       </c>
     </row>
     <row r="23">
@@ -2169,19 +2169,19 @@
         <v>239955</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>215812</v>
+        <v>216500</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>264089</v>
+        <v>261832</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3967530024931659</v>
+        <v>0.396753002493166</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3568339633433407</v>
+        <v>0.3579722746251027</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4366585001504908</v>
+        <v>0.4329267062275175</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>327</v>
@@ -2190,19 +2190,19 @@
         <v>207227</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>189237</v>
+        <v>190327</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>227055</v>
+        <v>227462</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3415358875536861</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3118861546422957</v>
+        <v>0.313682386347002</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3742143524759529</v>
+        <v>0.3748854165229847</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>573</v>
@@ -2211,19 +2211,19 @@
         <v>447182</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>415344</v>
+        <v>411922</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>477906</v>
+        <v>475814</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.369099880403182</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3428211367646594</v>
+        <v>0.3399964118637117</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3944589897810824</v>
+        <v>0.392732316319256</v>
       </c>
     </row>
     <row r="25">
@@ -2240,19 +2240,19 @@
         <v>250659</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>227350</v>
+        <v>229991</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>276126</v>
+        <v>274223</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.414451679106402</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3759120333145967</v>
+        <v>0.3802794103513477</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4565605481986237</v>
+        <v>0.4534134884774199</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>428</v>
@@ -2261,19 +2261,19 @@
         <v>255304</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>235227</v>
+        <v>237019</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>274915</v>
+        <v>272321</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4207726019139743</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.387682366910263</v>
+        <v>0.390635854161624</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4530933353154504</v>
+        <v>0.4488184395978457</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>707</v>
@@ -2282,19 +2282,19 @@
         <v>505963</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>475310</v>
+        <v>477206</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>535236</v>
+        <v>536467</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.417617241999551</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3923164351857212</v>
+        <v>0.3938819201897072</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4417792545886312</v>
+        <v>0.4427947161084292</v>
       </c>
     </row>
     <row r="26">
@@ -2311,19 +2311,19 @@
         <v>99277</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>83803</v>
+        <v>83553</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>116776</v>
+        <v>115807</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1641494010365261</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1385643420214003</v>
+        <v>0.1381511540909418</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1930830281063333</v>
+        <v>0.1914811034569906</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>210</v>
@@ -2332,19 +2332,19 @@
         <v>122651</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>107676</v>
+        <v>106252</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>138671</v>
+        <v>136707</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2021433933275428</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1774627567625817</v>
+        <v>0.1751155460509699</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.228547294383724</v>
+        <v>0.2253095732356467</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>327</v>
@@ -2353,19 +2353,19 @@
         <v>221928</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>200316</v>
+        <v>199112</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>245722</v>
+        <v>245548</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.1831770613672216</v>
+        <v>0.1831770613672217</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1653390176845649</v>
+        <v>0.1643455217580458</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2028168441285599</v>
+        <v>0.2026727606575586</v>
       </c>
     </row>
     <row r="27">
@@ -2382,19 +2382,19 @@
         <v>14906</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>9796</v>
+        <v>9176</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>23645</v>
+        <v>22830</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.024645917363906</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01619782065522635</v>
+        <v>0.01517153246398741</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03909629963486581</v>
+        <v>0.03774764476506295</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>34</v>
@@ -2403,19 +2403,19 @@
         <v>21569</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>15935</v>
+        <v>15458</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>30360</v>
+        <v>30044</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.03554811720479659</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02626328909515781</v>
+        <v>0.02547709361962808</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.05003768110854993</v>
+        <v>0.04951681683619021</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>52</v>
@@ -2424,19 +2424,19 @@
         <v>36475</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>27212</v>
+        <v>28241</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>48054</v>
+        <v>47949</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.03010581623004534</v>
+        <v>0.03010581623004533</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02246073917973214</v>
+        <v>0.02330997806710461</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.03966325314529191</v>
+        <v>0.03957639175038107</v>
       </c>
     </row>
     <row r="28">
@@ -2528,19 +2528,19 @@
         <v>165044</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>148906</v>
+        <v>149920</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>182720</v>
+        <v>181958</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4080127409782219</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.368115608982565</v>
+        <v>0.3706238912805817</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4517101089289641</v>
+        <v>0.44982463700512</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>276</v>
@@ -2549,19 +2549,19 @@
         <v>149034</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>135173</v>
+        <v>135996</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>163791</v>
+        <v>164863</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.3410155883797427</v>
+        <v>0.3410155883797426</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3092977655933863</v>
+        <v>0.3111815983096504</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3747814316951812</v>
+        <v>0.3772338665863724</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>500</v>
@@ -2570,19 +2570,19 @@
         <v>314079</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>291664</v>
+        <v>292441</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>335350</v>
+        <v>337070</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3732195419419918</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3465831112371117</v>
+        <v>0.3475068190489872</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3984950362561698</v>
+        <v>0.400539065362415</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>173811</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>155641</v>
+        <v>156816</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>189901</v>
+        <v>189911</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.4296859400744093</v>
+        <v>0.4296859400744094</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3847664196910488</v>
+        <v>0.3876708059975001</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4694613279245878</v>
+        <v>0.4694858566066987</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>341</v>
@@ -2620,19 +2620,19 @@
         <v>182662</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>168696</v>
+        <v>168199</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>197617</v>
+        <v>197962</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4179615472341346</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.386004839644734</v>
+        <v>0.3848668391780695</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4521809436487368</v>
+        <v>0.4529695819707291</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>584</v>
@@ -2641,19 +2641,19 @@
         <v>356474</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>335873</v>
+        <v>331634</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>380618</v>
+        <v>379042</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4235971867789463</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3991169500171369</v>
+        <v>0.394079407077117</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4522876174912389</v>
+        <v>0.4504150655326659</v>
       </c>
     </row>
     <row r="31">
@@ -2670,19 +2670,19 @@
         <v>56838</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>46268</v>
+        <v>46590</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>69965</v>
+        <v>69246</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1405102473223368</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1143799291673779</v>
+        <v>0.1151761557549369</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1729623076668054</v>
+        <v>0.1711857833136502</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>182</v>
@@ -2691,19 +2691,19 @@
         <v>92920</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>80792</v>
+        <v>80926</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>106517</v>
+        <v>105582</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2126168185218754</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1848649494714174</v>
+        <v>0.1851720336489026</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2437284026269206</v>
+        <v>0.2415882124508098</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>268</v>
@@ -2712,19 +2712,19 @@
         <v>149758</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>133371</v>
+        <v>132923</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>167214</v>
+        <v>168497</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1779568877579572</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1584850045499872</v>
+        <v>0.1579525828867442</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1986995530381157</v>
+        <v>0.2002245615339193</v>
       </c>
     </row>
     <row r="32">
@@ -2741,19 +2741,19 @@
         <v>8815</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5084</v>
+        <v>4989</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>15198</v>
+        <v>14920</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02179107162503191</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01256789292615093</v>
+        <v>0.01233376347045127</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03757127112639937</v>
+        <v>0.03688526894797719</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>24</v>
@@ -2762,19 +2762,19 @@
         <v>12414</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>8110</v>
+        <v>7845</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>18200</v>
+        <v>17835</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0284060458642475</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01855634749469607</v>
+        <v>0.01795031532182606</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04164564482091547</v>
+        <v>0.04081056304748412</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>38</v>
@@ -2783,19 +2783,19 @@
         <v>21229</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>15071</v>
+        <v>15025</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>28903</v>
+        <v>28731</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02522638352110474</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01790857585590389</v>
+        <v>0.01785444453068422</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03434561445392637</v>
+        <v>0.034141132508739</v>
       </c>
     </row>
     <row r="33">
@@ -2887,19 +2887,19 @@
         <v>94381</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>81641</v>
+        <v>80972</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>108225</v>
+        <v>107126</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3092314947558442</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2674909133388724</v>
+        <v>0.26529740855226</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3545885481714255</v>
+        <v>0.3509901311948248</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>189</v>
@@ -2908,19 +2908,19 @@
         <v>105222</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>91888</v>
+        <v>91343</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>120446</v>
+        <v>119045</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2288044058951189</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1998110574125943</v>
+        <v>0.1986261018249997</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2619086710749375</v>
+        <v>0.2588624146612245</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>325</v>
@@ -2929,19 +2929,19 @@
         <v>199603</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>181826</v>
+        <v>181976</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>220591</v>
+        <v>220798</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2608886923640318</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2376537206482051</v>
+        <v>0.2378498751964934</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2883205926336099</v>
+        <v>0.2885912189392795</v>
       </c>
     </row>
     <row r="35">
@@ -2958,19 +2958,19 @@
         <v>134689</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>120469</v>
+        <v>120898</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>149138</v>
+        <v>149624</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.4412953741067323</v>
+        <v>0.4412953741067324</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.394705810920612</v>
+        <v>0.3961102961141066</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4886361796736697</v>
+        <v>0.4902285633919176</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>358</v>
@@ -2979,19 +2979,19 @@
         <v>194286</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>178566</v>
+        <v>179229</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>209873</v>
+        <v>210159</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.4224738017278645</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3882921994179571</v>
+        <v>0.3897338414353878</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4563686921773005</v>
+        <v>0.4569913470116396</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>550</v>
@@ -3000,19 +3000,19 @@
         <v>328974</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>308965</v>
+        <v>305799</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>349222</v>
+        <v>349785</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.4299821764378419</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.4038299811556653</v>
+        <v>0.3996915408008846</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.4564465136004885</v>
+        <v>0.4571826261057307</v>
       </c>
     </row>
     <row r="36">
@@ -3029,19 +3029,19 @@
         <v>64204</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>52901</v>
+        <v>52554</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>76668</v>
+        <v>75594</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2103599152848679</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1733269107125022</v>
+        <v>0.1721884104300454</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.251194754773884</v>
+        <v>0.2476763529679977</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>278</v>
@@ -3050,19 +3050,19 @@
         <v>137529</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>123345</v>
+        <v>123953</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>150702</v>
+        <v>152431</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2990559598429465</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2682136510196275</v>
+        <v>0.269536034230382</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3277010716806627</v>
+        <v>0.3314609044801137</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>379</v>
@@ -3071,19 +3071,19 @@
         <v>201733</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>182902</v>
+        <v>183069</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>219843</v>
+        <v>220885</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2636729894710012</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2390606263748451</v>
+        <v>0.239277965136087</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2873440535214262</v>
+        <v>0.2887055990248509</v>
       </c>
     </row>
     <row r="37">
@@ -3100,19 +3100,19 @@
         <v>11938</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>7297</v>
+        <v>7758</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>18327</v>
+        <v>18049</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03911321585255555</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02390880690629803</v>
+        <v>0.02541969143504823</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.06004689940789428</v>
+        <v>0.05913532551724282</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>47</v>
@@ -3121,19 +3121,19 @@
         <v>22840</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>16631</v>
+        <v>16666</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>30242</v>
+        <v>30169</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.0496658325340701</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03616458096679376</v>
+        <v>0.03624097334094796</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.06576024703806083</v>
+        <v>0.06560288795518236</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>69</v>
@@ -3142,19 +3142,19 @@
         <v>34778</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>27445</v>
+        <v>27255</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>43800</v>
+        <v>43429</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.04545614172712512</v>
+        <v>0.04545614172712513</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03587230124495948</v>
+        <v>0.03562352011720602</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05724883744126953</v>
+        <v>0.05676347909841017</v>
       </c>
     </row>
     <row r="38">
@@ -3246,19 +3246,19 @@
         <v>1722901</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1659059</v>
+        <v>1657463</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1790580</v>
+        <v>1787546</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.4898015842938493</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4716518758895011</v>
+        <v>0.4711983487104291</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.509042042408299</v>
+        <v>0.5081793174873076</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>2007</v>
@@ -3267,19 +3267,19 @@
         <v>1576356</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>1520018</v>
+        <v>1522864</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>1634795</v>
+        <v>1632707</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.4233028854259462</v>
+        <v>0.4233028854259463</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.408174245873583</v>
+        <v>0.4089385285418038</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.4389955214757447</v>
+        <v>0.4384348143400041</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>3478</v>
@@ -3288,19 +3288,19 @@
         <v>3299257</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>3217152</v>
+        <v>3208278</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>3392503</v>
+        <v>3382539</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.455604570909813</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.4442664367377671</v>
+        <v>0.4430409025471707</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.4684811582551504</v>
+        <v>0.4671052287107876</v>
       </c>
     </row>
     <row r="40">
@@ -3317,19 +3317,19 @@
         <v>1288878</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1230161</v>
+        <v>1223144</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1354209</v>
+        <v>1351898</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3664137578432983</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3497209896667388</v>
+        <v>0.347726319771278</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3849865000339552</v>
+        <v>0.3843296191900753</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2217</v>
@@ -3338,19 +3338,19 @@
         <v>1473485</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1418108</v>
+        <v>1419448</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1526541</v>
+        <v>1526370</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.3956785810113224</v>
+        <v>0.3956785810113225</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.3808080752067071</v>
+        <v>0.3811680030627123</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.409925853168816</v>
+        <v>0.4098799484086413</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3526</v>
@@ -3359,19 +3359,19 @@
         <v>2762363</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2677137</v>
+        <v>2680510</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>2842462</v>
+        <v>2847477</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.381463218458255</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3696940421524377</v>
+        <v>0.3701598590030635</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3925243115471798</v>
+        <v>0.3932168243327557</v>
       </c>
     </row>
     <row r="41">
@@ -3388,19 +3388,19 @@
         <v>427608</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>391757</v>
+        <v>390962</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>471499</v>
+        <v>466057</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1215642950599254</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1113722451099102</v>
+        <v>0.1111462091205935</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1340420035695598</v>
+        <v>0.1324946872778867</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>979</v>
@@ -3409,19 +3409,19 @@
         <v>590228</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>554556</v>
+        <v>551093</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>628831</v>
+        <v>628209</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.1584954159201379</v>
+        <v>0.158495415920138</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.14891637589799</v>
+        <v>0.1479864011040385</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1688615475368588</v>
+        <v>0.1686945757477165</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1472</v>
@@ -3430,19 +3430,19 @@
         <v>1017836</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>968769</v>
+        <v>961601</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1073317</v>
+        <v>1074968</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1405561558909609</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1337802288780847</v>
+        <v>0.132790464712072</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.148217646294324</v>
+        <v>0.1484455985083964</v>
       </c>
     </row>
     <row r="42">
@@ -3459,19 +3459,19 @@
         <v>78161</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>62023</v>
+        <v>61564</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>97687</v>
+        <v>99593</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.02222036280292707</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01763237119354981</v>
+        <v>0.01750185178703677</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.02777133963480899</v>
+        <v>0.02831321489880912</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>141</v>
@@ -3480,19 +3480,19 @@
         <v>83875</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>71771</v>
+        <v>70602</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>100122</v>
+        <v>99600</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.02252311764259336</v>
+        <v>0.02252311764259337</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01927284560774403</v>
+        <v>0.01895883311388915</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.02688596785029971</v>
+        <v>0.02674576183650459</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>229</v>
@@ -3501,19 +3501,19 @@
         <v>162036</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>139448</v>
+        <v>139084</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>184340</v>
+        <v>186828</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.0223760547409711</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.01925676525193176</v>
+        <v>0.01920654007281355</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.02545612512947896</v>
+        <v>0.02579962363419348</v>
       </c>
     </row>
     <row r="43">
